--- a/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-medicinalProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-medicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T11:14:51+00:00</t>
+    <t>2024-05-23T12:15:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-medicinalProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-medicinalProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5906" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5906" uniqueCount="685">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:15:30+00:00</t>
+    <t>2024-05-23T12:44:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -807,7 +807,7 @@
 </t>
   </si>
   <si>
-    <t>Concept - reference to a terminology or just  text</t>
+    <t>Domain</t>
   </si>
   <si>
     <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
@@ -946,6 +946,9 @@
     <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm</t>
   </si>
   <si>
+    <t>Pharmaceutical dose form</t>
+  </si>
+  <si>
     <t>Dose forms for a product as a whole, considering all individual parts, but before any mixing</t>
   </si>
   <si>
@@ -991,6 +994,9 @@
     <t>MedicinalProductDefinition.legalStatusOfSupply</t>
   </si>
   <si>
+    <t>Prescription requirement state</t>
+  </si>
+  <si>
     <t>https://ema.europa.eu/fhir/vs/legalStatusForTheSupply</t>
   </si>
   <si>
@@ -1055,6 +1061,9 @@
   </si>
   <si>
     <t>MedicinalProductDefinition.classification</t>
+  </si>
+  <si>
+    <t>Concept - reference to a terminology or just  text</t>
   </si>
   <si>
     <t>This value set includes codes from the Anatomical Therapeutic Chemical Classification System - provided as an exemplar value set.</t>
@@ -1103,7 +1112,7 @@
     <t>MedicinalProductDefinition.classification.coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
+    <t>Drug intercation</t>
   </si>
   <si>
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
@@ -1286,6 +1295,9 @@
     <t>MedicinalProductDefinition.classification.coding:elgaImpfziel.system</t>
   </si>
   <si>
+    <t>Immunization target</t>
+  </si>
+  <si>
     <t>https://termgit.elga.gv.at/CodeSystem/eimpf-ergaenzung</t>
   </si>
   <si>
@@ -1328,6 +1340,9 @@
     <t>MedicinalProductDefinition.classification.coding:ATCCodeRMS.system</t>
   </si>
   <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
     <t>https://spor.ema.europa.eu/v1/lists/100000093533</t>
   </si>
   <si>
@@ -1368,6 +1383,9 @@
   </si>
   <si>
     <t>MedicinalProductDefinition.classification.coding:ATCCodeWHO.system</t>
+  </si>
+  <si>
+    <t>WHO ATC</t>
   </si>
   <si>
     <t>http://www.whocc.no/atc</t>
@@ -6819,7 +6837,7 @@
         <v>253</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>255</v>
@@ -6854,10 +6872,10 @@
         <v>247</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>74</v>
@@ -6901,10 +6919,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6930,10 +6948,10 @@
         <v>189</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6963,10 +6981,10 @@
         <v>247</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>74</v>
@@ -6984,7 +7002,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -7002,18 +7020,18 @@
         <v>74</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7039,10 +7057,10 @@
         <v>294</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7093,7 +7111,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -7111,18 +7129,18 @@
         <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7148,7 +7166,7 @@
         <v>253</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>255</v>
@@ -7184,25 +7202,25 @@
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -7228,10 +7246,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7257,10 +7275,10 @@
         <v>189</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7290,10 +7308,10 @@
         <v>247</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>74</v>
@@ -7311,7 +7329,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -7329,18 +7347,18 @@
         <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7366,10 +7384,10 @@
         <v>189</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7399,10 +7417,10 @@
         <v>247</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>74</v>
@@ -7420,7 +7438,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -7438,18 +7456,18 @@
         <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7475,10 +7493,10 @@
         <v>189</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7508,10 +7526,10 @@
         <v>247</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>74</v>
@@ -7529,7 +7547,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7547,18 +7565,18 @@
         <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7584,7 +7602,7 @@
         <v>253</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>255</v>
@@ -7619,28 +7637,28 @@
         <v>247</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Z47" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7666,10 +7684,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7775,10 +7793,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7886,10 +7904,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7961,10 +7979,10 @@
         <v>74</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>74</v>
@@ -7999,13 +8017,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="B51" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="C51" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>74</v>
@@ -8114,10 +8132,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8223,10 +8241,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8334,10 +8352,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8363,16 +8381,16 @@
         <v>99</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -8382,7 +8400,7 @@
         <v>74</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>74</v>
@@ -8421,7 +8439,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8442,15 +8460,15 @@
         <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8476,10 +8494,10 @@
         <v>210</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8556,10 +8574,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8585,10 +8603,10 @@
         <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8663,13 +8681,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="B57" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="C57" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>74</v>
@@ -8691,13 +8709,13 @@
         <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8774,10 +8792,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8803,10 +8821,10 @@
         <v>99</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8857,7 +8875,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8883,10 +8901,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8912,13 +8930,13 @@
         <v>210</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8968,7 +8986,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8989,15 +9007,15 @@
         <v>74</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9023,14 +9041,14 @@
         <v>105</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -9079,7 +9097,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -9088,7 +9106,7 @@
         <v>85</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>97</v>
@@ -9100,15 +9118,15 @@
         <v>74</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9134,14 +9152,14 @@
         <v>210</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -9190,7 +9208,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -9199,7 +9217,7 @@
         <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>97</v>
@@ -9211,15 +9229,15 @@
         <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9242,19 +9260,19 @@
         <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -9303,7 +9321,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -9324,18 +9342,18 @@
         <v>74</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>74</v>
@@ -9444,10 +9462,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9553,10 +9571,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9664,10 +9682,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9693,16 +9711,16 @@
         <v>99</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>351</v>
+        <v>414</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>74</v>
@@ -9712,7 +9730,7 @@
         <v>74</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>74</v>
@@ -9751,7 +9769,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9772,15 +9790,15 @@
         <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9806,10 +9824,10 @@
         <v>210</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9886,10 +9904,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9915,10 +9933,10 @@
         <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9993,13 +10011,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>74</v>
@@ -10021,13 +10039,13 @@
         <v>74</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10104,10 +10122,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10133,10 +10151,10 @@
         <v>99</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10187,7 +10205,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -10213,10 +10231,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10242,13 +10260,13 @@
         <v>210</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10298,7 +10316,7 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -10319,15 +10337,15 @@
         <v>74</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10353,14 +10371,14 @@
         <v>105</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>74</v>
@@ -10409,7 +10427,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -10418,7 +10436,7 @@
         <v>85</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>97</v>
@@ -10430,15 +10448,15 @@
         <v>74</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10464,14 +10482,14 @@
         <v>210</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>74</v>
@@ -10520,7 +10538,7 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -10529,7 +10547,7 @@
         <v>85</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>97</v>
@@ -10541,15 +10559,15 @@
         <v>74</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10572,19 +10590,19 @@
         <v>86</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>74</v>
@@ -10633,7 +10651,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -10654,18 +10672,18 @@
         <v>74</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>74</v>
@@ -10774,10 +10792,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10883,10 +10901,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10994,10 +11012,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11023,16 +11041,16 @@
         <v>99</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>351</v>
+        <v>429</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>74</v>
@@ -11042,7 +11060,7 @@
         <v>74</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>74</v>
@@ -11081,7 +11099,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -11102,15 +11120,15 @@
         <v>74</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11136,10 +11154,10 @@
         <v>210</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11216,10 +11234,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11245,10 +11263,10 @@
         <v>133</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11323,13 +11341,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>74</v>
@@ -11351,13 +11369,13 @@
         <v>74</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11434,10 +11452,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11463,10 +11481,10 @@
         <v>99</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11517,7 +11535,7 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -11543,10 +11561,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11572,13 +11590,13 @@
         <v>210</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11628,7 +11646,7 @@
         <v>74</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
@@ -11649,15 +11667,15 @@
         <v>74</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11683,14 +11701,14 @@
         <v>105</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>74</v>
@@ -11739,7 +11757,7 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
@@ -11748,7 +11766,7 @@
         <v>85</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>97</v>
@@ -11760,15 +11778,15 @@
         <v>74</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11794,14 +11812,14 @@
         <v>210</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>74</v>
@@ -11850,7 +11868,7 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
@@ -11859,7 +11877,7 @@
         <v>85</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>97</v>
@@ -11871,15 +11889,15 @@
         <v>74</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11902,19 +11920,19 @@
         <v>86</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>74</v>
@@ -11963,7 +11981,7 @@
         <v>74</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
@@ -11984,18 +12002,18 @@
         <v>74</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>74</v>
@@ -12104,10 +12122,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12213,10 +12231,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12324,10 +12342,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12353,16 +12371,16 @@
         <v>99</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>351</v>
+        <v>444</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>74</v>
@@ -12372,7 +12390,7 @@
         <v>74</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>74</v>
@@ -12411,7 +12429,7 @@
         <v>74</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>75</v>
@@ -12432,15 +12450,15 @@
         <v>74</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12466,10 +12484,10 @@
         <v>210</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12546,10 +12564,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12575,10 +12593,10 @@
         <v>133</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12653,13 +12671,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>74</v>
@@ -12681,13 +12699,13 @@
         <v>74</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12764,10 +12782,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12793,10 +12811,10 @@
         <v>99</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12847,7 +12865,7 @@
         <v>74</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>75</v>
@@ -12873,10 +12891,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12902,13 +12920,13 @@
         <v>210</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -12958,7 +12976,7 @@
         <v>74</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>75</v>
@@ -12979,15 +12997,15 @@
         <v>74</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13013,14 +13031,14 @@
         <v>105</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>74</v>
@@ -13069,7 +13087,7 @@
         <v>74</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>75</v>
@@ -13078,7 +13096,7 @@
         <v>85</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>97</v>
@@ -13090,15 +13108,15 @@
         <v>74</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13124,14 +13142,14 @@
         <v>210</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>74</v>
@@ -13180,7 +13198,7 @@
         <v>74</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>75</v>
@@ -13189,7 +13207,7 @@
         <v>85</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>97</v>
@@ -13201,15 +13219,15 @@
         <v>74</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13232,19 +13250,19 @@
         <v>86</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>74</v>
@@ -13293,7 +13311,7 @@
         <v>74</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>75</v>
@@ -13314,15 +13332,15 @@
         <v>74</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13432,10 +13450,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13458,13 +13476,13 @@
         <v>86</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13515,7 +13533,7 @@
         <v>74</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>75</v>
@@ -13533,18 +13551,18 @@
         <v>74</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13570,10 +13588,10 @@
         <v>189</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13603,10 +13621,10 @@
         <v>247</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>74</v>
@@ -13624,7 +13642,7 @@
         <v>74</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>75</v>
@@ -13642,18 +13660,18 @@
         <v>74</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13676,13 +13694,13 @@
         <v>86</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13733,7 +13751,7 @@
         <v>74</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>75</v>
@@ -13751,18 +13769,18 @@
         <v>74</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13788,10 +13806,10 @@
         <v>189</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13821,10 +13839,10 @@
         <v>247</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>74</v>
@@ -13842,7 +13860,7 @@
         <v>74</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>75</v>
@@ -13860,18 +13878,18 @@
         <v>74</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13894,13 +13912,13 @@
         <v>86</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13930,10 +13948,10 @@
         <v>247</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>74</v>
@@ -13951,7 +13969,7 @@
         <v>74</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>75</v>
@@ -13972,15 +13990,15 @@
         <v>169</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14003,13 +14021,13 @@
         <v>86</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14060,7 +14078,7 @@
         <v>74</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>75</v>
@@ -14078,18 +14096,18 @@
         <v>74</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14112,13 +14130,13 @@
         <v>86</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14169,7 +14187,7 @@
         <v>74</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>75</v>
@@ -14187,18 +14205,18 @@
         <v>74</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14221,13 +14239,13 @@
         <v>86</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -14278,7 +14296,7 @@
         <v>74</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>75</v>
@@ -14299,15 +14317,15 @@
         <v>169</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14413,10 +14431,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14524,14 +14542,14 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -14553,10 +14571,10 @@
         <v>133</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="N110" t="s" s="2">
         <v>136</v>
@@ -14611,7 +14629,7 @@
         <v>74</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>75</v>
@@ -14637,10 +14655,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14666,10 +14684,10 @@
         <v>189</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -14699,10 +14717,10 @@
         <v>247</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>74</v>
@@ -14720,7 +14738,7 @@
         <v>74</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>75</v>
@@ -14741,15 +14759,15 @@
         <v>169</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14772,13 +14790,13 @@
         <v>86</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -14829,7 +14847,7 @@
         <v>74</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>85</v>
@@ -14850,15 +14868,15 @@
         <v>169</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14881,13 +14899,13 @@
         <v>86</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -14938,7 +14956,7 @@
         <v>74</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>75</v>
@@ -14956,18 +14974,18 @@
         <v>74</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14990,13 +15008,13 @@
         <v>86</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -15026,10 +15044,10 @@
         <v>247</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>74</v>
@@ -15047,7 +15065,7 @@
         <v>74</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>75</v>
@@ -15073,10 +15091,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15099,13 +15117,13 @@
         <v>86</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -15156,7 +15174,7 @@
         <v>74</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>85</v>
@@ -15174,18 +15192,18 @@
         <v>74</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15291,10 +15309,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15402,14 +15420,14 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -15431,10 +15449,10 @@
         <v>133</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>136</v>
@@ -15489,7 +15507,7 @@
         <v>74</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>75</v>
@@ -15515,10 +15533,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15544,10 +15562,10 @@
         <v>210</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15598,7 +15616,7 @@
         <v>74</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>85</v>
@@ -15616,18 +15634,18 @@
         <v>74</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15653,10 +15671,10 @@
         <v>189</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -15686,10 +15704,10 @@
         <v>247</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>74</v>
@@ -15707,7 +15725,7 @@
         <v>74</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>75</v>
@@ -15728,15 +15746,15 @@
         <v>169</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15744,7 +15762,7 @@
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>76</v>
@@ -15759,13 +15777,13 @@
         <v>86</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -15804,10 +15822,10 @@
         <v>74</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="AC121" t="s" s="2">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="AD121" t="s" s="2">
         <v>74</v>
@@ -15816,7 +15834,7 @@
         <v>175</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>75</v>
@@ -15834,18 +15852,18 @@
         <v>74</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15951,10 +15969,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16062,14 +16080,14 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
@@ -16091,10 +16109,10 @@
         <v>133</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="N124" t="s" s="2">
         <v>136</v>
@@ -16149,7 +16167,7 @@
         <v>74</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>75</v>
@@ -16175,10 +16193,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16204,10 +16222,10 @@
         <v>210</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -16258,7 +16276,7 @@
         <v>74</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>85</v>
@@ -16276,18 +16294,18 @@
         <v>74</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16313,10 +16331,10 @@
         <v>189</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -16346,10 +16364,10 @@
         <v>247</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>74</v>
@@ -16367,7 +16385,7 @@
         <v>74</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>85</v>
@@ -16385,18 +16403,18 @@
         <v>74</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -16502,10 +16520,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -16613,10 +16631,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -16680,7 +16698,7 @@
       </c>
       <c r="Y129" s="2"/>
       <c r="Z129" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>74</v>
@@ -16724,10 +16742,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -16837,13 +16855,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>74</v>
@@ -16865,13 +16883,13 @@
         <v>86</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -16922,7 +16940,7 @@
         <v>74</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>75</v>
@@ -16940,18 +16958,18 @@
         <v>74</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17057,10 +17075,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17168,14 +17186,14 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
@@ -17197,10 +17215,10 @@
         <v>133</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="N134" t="s" s="2">
         <v>136</v>
@@ -17255,7 +17273,7 @@
         <v>74</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>75</v>
@@ -17281,10 +17299,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17310,10 +17328,10 @@
         <v>210</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -17364,7 +17382,7 @@
         <v>74</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>85</v>
@@ -17382,18 +17400,18 @@
         <v>74</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -17419,10 +17437,10 @@
         <v>189</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -17434,7 +17452,7 @@
         <v>74</v>
       </c>
       <c r="S136" t="s" s="2">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="T136" t="s" s="2">
         <v>74</v>
@@ -17452,10 +17470,10 @@
         <v>247</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="Z136" t="s" s="2">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="AA136" t="s" s="2">
         <v>74</v>
@@ -17473,7 +17491,7 @@
         <v>74</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>85</v>
@@ -17491,21 +17509,21 @@
         <v>74</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="D137" t="s" s="2">
         <v>74</v>
@@ -17527,13 +17545,13 @@
         <v>86</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -17584,7 +17602,7 @@
         <v>74</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>75</v>
@@ -17602,18 +17620,18 @@
         <v>74</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -17719,10 +17737,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -17830,14 +17848,14 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
@@ -17859,10 +17877,10 @@
         <v>133</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="N140" t="s" s="2">
         <v>136</v>
@@ -17917,7 +17935,7 @@
         <v>74</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>75</v>
@@ -17943,10 +17961,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -17972,10 +17990,10 @@
         <v>210</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
@@ -18026,7 +18044,7 @@
         <v>74</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>85</v>
@@ -18044,18 +18062,18 @@
         <v>74</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -18081,10 +18099,10 @@
         <v>189</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -18096,7 +18114,7 @@
         <v>74</v>
       </c>
       <c r="S142" t="s" s="2">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="T142" t="s" s="2">
         <v>74</v>
@@ -18114,10 +18132,10 @@
         <v>247</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>74</v>
@@ -18135,7 +18153,7 @@
         <v>74</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>85</v>
@@ -18153,18 +18171,18 @@
         <v>74</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18187,13 +18205,13 @@
         <v>86</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -18244,7 +18262,7 @@
         <v>74</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>75</v>
@@ -18262,18 +18280,18 @@
         <v>74</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -18379,10 +18397,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -18490,14 +18508,14 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
@@ -18519,10 +18537,10 @@
         <v>133</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="N146" t="s" s="2">
         <v>136</v>
@@ -18577,7 +18595,7 @@
         <v>74</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>75</v>
@@ -18603,10 +18621,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -18632,10 +18650,10 @@
         <v>189</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -18665,10 +18683,10 @@
         <v>247</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>74</v>
@@ -18686,7 +18704,7 @@
         <v>74</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>85</v>
@@ -18704,18 +18722,18 @@
         <v>74</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -18741,10 +18759,10 @@
         <v>189</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -18774,10 +18792,10 @@
         <v>247</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="Z148" t="s" s="2">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="AA148" t="s" s="2">
         <v>74</v>
@@ -18795,7 +18813,7 @@
         <v>74</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>75</v>
@@ -18813,18 +18831,18 @@
         <v>74</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -18850,10 +18868,10 @@
         <v>189</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -18904,7 +18922,7 @@
         <v>74</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>85</v>
@@ -18922,18 +18940,18 @@
         <v>74</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -18956,13 +18974,13 @@
         <v>86</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -19013,7 +19031,7 @@
         <v>74</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>75</v>
@@ -19031,18 +19049,18 @@
         <v>74</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -19148,10 +19166,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -19259,14 +19277,14 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -19288,10 +19306,10 @@
         <v>133</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="N153" t="s" s="2">
         <v>136</v>
@@ -19346,7 +19364,7 @@
         <v>74</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>75</v>
@@ -19372,10 +19390,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -19398,13 +19416,13 @@
         <v>86</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -19455,7 +19473,7 @@
         <v>74</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>85</v>
@@ -19473,18 +19491,18 @@
         <v>74</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -19510,10 +19528,10 @@
         <v>189</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -19543,10 +19561,10 @@
         <v>247</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>74</v>
@@ -19564,7 +19582,7 @@
         <v>74</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>75</v>
@@ -19582,18 +19600,18 @@
         <v>74</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -19616,13 +19634,13 @@
         <v>86</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -19673,7 +19691,7 @@
         <v>74</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>75</v>
@@ -19691,18 +19709,18 @@
         <v>74</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -19808,10 +19826,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -19919,14 +19937,14 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
@@ -19948,10 +19966,10 @@
         <v>133</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="N159" t="s" s="2">
         <v>136</v>
@@ -20006,7 +20024,7 @@
         <v>74</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>75</v>
@@ -20032,10 +20050,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -20058,13 +20076,13 @@
         <v>86</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -20115,7 +20133,7 @@
         <v>74</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>75</v>
@@ -20133,18 +20151,18 @@
         <v>74</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -20170,10 +20188,10 @@
         <v>220</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -20224,7 +20242,7 @@
         <v>74</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>75</v>
@@ -20242,18 +20260,18 @@
         <v>74</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -20279,10 +20297,10 @@
         <v>227</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -20333,7 +20351,7 @@
         <v>74</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>75</v>
@@ -20351,18 +20369,18 @@
         <v>74</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>649</v>
+        <v>655</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -20388,10 +20406,10 @@
         <v>189</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
@@ -20421,10 +20439,10 @@
         <v>247</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>74</v>
@@ -20442,7 +20460,7 @@
         <v>74</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>75</v>
@@ -20460,18 +20478,18 @@
         <v>74</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -20494,13 +20512,13 @@
         <v>86</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
@@ -20551,7 +20569,7 @@
         <v>74</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>75</v>
@@ -20569,18 +20587,18 @@
         <v>74</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -20686,10 +20704,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -20797,14 +20815,14 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" t="s" s="2">
@@ -20826,10 +20844,10 @@
         <v>133</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="N167" t="s" s="2">
         <v>136</v>
@@ -20884,7 +20902,7 @@
         <v>74</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>75</v>
@@ -20910,10 +20928,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -20939,10 +20957,10 @@
         <v>189</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -20972,10 +20990,10 @@
         <v>247</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="Z168" t="s" s="2">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="AA168" t="s" s="2">
         <v>74</v>
@@ -20993,7 +21011,7 @@
         <v>74</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>85</v>
@@ -21011,18 +21029,18 @@
         <v>74</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -21045,16 +21063,16 @@
         <v>86</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="O169" s="2"/>
       <c r="P169" t="s" s="2">
@@ -21104,7 +21122,7 @@
         <v>74</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>75</v>
@@ -21122,10 +21140,10 @@
         <v>74</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>

--- a/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-medicinalProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-medicinalProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5906" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5502" uniqueCount="664">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:44:01+00:00</t>
+    <t>2024-05-23T12:55:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1106,58 +1106,7 @@
     <t>MedicinalProductDefinition.classification.coding.extension</t>
   </si>
   <si>
-    <t>MedicinalProductDefinition.classification.coding:interactionRelevance.system</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding.system</t>
-  </si>
-  <si>
-    <t>Drug intercation</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>https://www.ages.at/fhir/interactionRelevance</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding:interactionRelevance.system.id</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding.system.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding:interactionRelevance.system.extension</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding.system.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding:interactionRelevance.system.extension:codeSystemName</t>
+    <t>MedicinalProductDefinition.classification.coding:interactionRelevance.extension:codeSystemName</t>
   </si>
   <si>
     <t>codeSystemName</t>
@@ -1167,22 +1116,37 @@
 </t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
     <t>Name of the coding system the 'coding' element belongs to as the number is not very explicative</t>
   </si>
   <si>
-    <t>MedicinalProductDefinition.classification.coding:interactionRelevance.system.value</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding.system.value</t>
-  </si>
-  <si>
-    <t>Primitive value for uri</t>
-  </si>
-  <si>
-    <t>The actual value</t>
-  </si>
-  <si>
-    <t>uri.value</t>
+    <t>MedicinalProductDefinition.classification.coding:interactionRelevance.system</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.classification.coding.system</t>
+  </si>
+  <si>
+    <t>Drug intercation</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>https://www.ages.at/fhir/interactionRelevance</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.classification.coding:interactionRelevance.version</t>
@@ -1292,6 +1256,9 @@
     <t>MedicinalProductDefinition.classification.coding:elgaImpfziel.extension</t>
   </si>
   <si>
+    <t>MedicinalProductDefinition.classification.coding:elgaImpfziel.extension:codeSystemName</t>
+  </si>
+  <si>
     <t>MedicinalProductDefinition.classification.coding:elgaImpfziel.system</t>
   </si>
   <si>
@@ -1301,18 +1268,6 @@
     <t>https://termgit.elga.gv.at/CodeSystem/eimpf-ergaenzung</t>
   </si>
   <si>
-    <t>MedicinalProductDefinition.classification.coding:elgaImpfziel.system.id</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding:elgaImpfziel.system.extension</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding:elgaImpfziel.system.extension:codeSystemName</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding:elgaImpfziel.system.value</t>
-  </si>
-  <si>
     <t>MedicinalProductDefinition.classification.coding:elgaImpfziel.version</t>
   </si>
   <si>
@@ -1337,6 +1292,9 @@
     <t>MedicinalProductDefinition.classification.coding:ATCCodeRMS.extension</t>
   </si>
   <si>
+    <t>MedicinalProductDefinition.classification.coding:ATCCodeRMS.extension:codeSystemName</t>
+  </si>
+  <si>
     <t>MedicinalProductDefinition.classification.coding:ATCCodeRMS.system</t>
   </si>
   <si>
@@ -1346,18 +1304,6 @@
     <t>https://spor.ema.europa.eu/v1/lists/100000093533</t>
   </si>
   <si>
-    <t>MedicinalProductDefinition.classification.coding:ATCCodeRMS.system.id</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding:ATCCodeRMS.system.extension</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding:ATCCodeRMS.system.extension:codeSystemName</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding:ATCCodeRMS.system.value</t>
-  </si>
-  <si>
     <t>MedicinalProductDefinition.classification.coding:ATCCodeRMS.version</t>
   </si>
   <si>
@@ -1382,6 +1328,9 @@
     <t>MedicinalProductDefinition.classification.coding:ATCCodeWHO.extension</t>
   </si>
   <si>
+    <t>MedicinalProductDefinition.classification.coding:ATCCodeWHO.extension:codeSystemName</t>
+  </si>
+  <si>
     <t>MedicinalProductDefinition.classification.coding:ATCCodeWHO.system</t>
   </si>
   <si>
@@ -1389,18 +1338,6 @@
   </si>
   <si>
     <t>http://www.whocc.no/atc</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding:ATCCodeWHO.system.id</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding:ATCCodeWHO.system.extension</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding:ATCCodeWHO.system.extension:codeSystemName</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding:ATCCodeWHO.system.value</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.classification.coding:ATCCodeWHO.version</t>
@@ -2426,7 +2363,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM169"/>
+  <dimension ref="A1:AM157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2435,8 +2372,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="98.9296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="61.56640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="91.71875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="58.828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="20.50390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -8355,15 +8292,17 @@
         <v>352</v>
       </c>
       <c r="B54" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="C54" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>85</v>
@@ -8375,23 +8314,19 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>99</v>
+        <v>354</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N54" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="O54" t="s" s="2">
-        <v>357</v>
-      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>74</v>
       </c>
@@ -8400,7 +8335,7 @@
         <v>74</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>358</v>
+        <v>74</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>74</v>
@@ -8439,19 +8374,19 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>359</v>
+        <v>176</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>74</v>
@@ -8460,15 +8395,15 @@
         <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>360</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8476,7 +8411,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>85</v>
@@ -8488,19 +8423,23 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>74</v>
       </c>
@@ -8509,7 +8448,7 @@
         <v>74</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>74</v>
+        <v>363</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>74</v>
@@ -8548,7 +8487,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>167</v>
+        <v>364</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -8560,7 +8499,7 @@
         <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>74</v>
@@ -8569,15 +8508,15 @@
         <v>74</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>74</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8588,7 +8527,7 @@
         <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>74</v>
@@ -8597,18 +8536,20 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -8645,29 +8586,31 @@
         <v>74</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AC56" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>176</v>
+        <v>371</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>74</v>
@@ -8676,25 +8619,23 @@
         <v>74</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>74</v>
+        <v>372</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>85</v>
@@ -8706,19 +8647,21 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>371</v>
+        <v>105</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>74</v>
       </c>
@@ -8766,19 +8709,19 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>176</v>
+        <v>378</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>74</v>
+        <v>379</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>74</v>
@@ -8787,15 +8730,15 @@
         <v>74</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>74</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8803,7 +8746,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>85</v>
@@ -8815,19 +8758,21 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>74</v>
       </c>
@@ -8875,7 +8820,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8884,10 +8829,10 @@
         <v>85</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>74</v>
+        <v>379</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>74</v>
@@ -8896,15 +8841,15 @@
         <v>74</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>74</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8927,18 +8872,20 @@
         <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>210</v>
+        <v>390</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>74</v>
       </c>
@@ -8986,7 +8933,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -9007,23 +8954,25 @@
         <v>74</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>85</v>
@@ -9035,20 +8984,22 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>105</v>
+        <v>263</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>387</v>
+        <v>264</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O60" t="s" s="2">
-        <v>389</v>
+        <v>267</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -9097,19 +9048,19 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>390</v>
+        <v>269</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>391</v>
+        <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>74</v>
@@ -9118,15 +9069,15 @@
         <v>74</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>392</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9134,7 +9085,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>85</v>
@@ -9146,21 +9097,19 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>395</v>
+        <v>165</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>396</v>
+        <v>166</v>
       </c>
       <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>397</v>
-      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>74</v>
       </c>
@@ -9208,7 +9157,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>398</v>
+        <v>167</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -9217,10 +9166,10 @@
         <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>391</v>
+        <v>168</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>74</v>
@@ -9229,7 +9178,7 @@
         <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>399</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62">
@@ -9237,18 +9186,18 @@
         <v>400</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
@@ -9257,23 +9206,21 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>402</v>
+        <v>133</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>403</v>
+        <v>134</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>404</v>
+        <v>172</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>74</v>
       </c>
@@ -9309,31 +9256,31 @@
         <v>74</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>407</v>
+        <v>176</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>74</v>
@@ -9342,18 +9289,18 @@
         <v>74</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>408</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>74</v>
@@ -9375,20 +9322,16 @@
         <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>264</v>
+        <v>355</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>74</v>
       </c>
@@ -9436,7 +9379,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>269</v>
+        <v>176</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9448,7 +9391,7 @@
         <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>270</v>
+        <v>138</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>74</v>
@@ -9457,15 +9400,15 @@
         <v>74</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>271</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9473,7 +9416,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>85</v>
@@ -9485,19 +9428,23 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>165</v>
+        <v>403</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>74</v>
       </c>
@@ -9506,7 +9453,7 @@
         <v>74</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>74</v>
@@ -9545,7 +9492,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>167</v>
+        <v>364</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9554,10 +9501,10 @@
         <v>85</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>74</v>
@@ -9566,26 +9513,26 @@
         <v>74</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>169</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>74</v>
@@ -9594,19 +9541,19 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>134</v>
+        <v>368</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>172</v>
+        <v>369</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>136</v>
+        <v>370</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9644,31 +9591,31 @@
         <v>74</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>176</v>
+        <v>371</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>74</v>
@@ -9677,15 +9624,15 @@
         <v>74</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>169</v>
+        <v>372</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9708,19 +9655,17 @@
         <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>74</v>
@@ -9730,7 +9675,7 @@
         <v>74</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>415</v>
+        <v>74</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>74</v>
@@ -9769,7 +9714,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9778,7 +9723,7 @@
         <v>85</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>74</v>
+        <v>379</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>97</v>
@@ -9790,15 +9735,15 @@
         <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9806,7 +9751,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>85</v>
@@ -9818,19 +9763,21 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>210</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>74</v>
       </c>
@@ -9878,7 +9825,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>167</v>
+        <v>386</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9887,10 +9834,10 @@
         <v>85</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>74</v>
+        <v>379</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>74</v>
@@ -9899,15 +9846,15 @@
         <v>74</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>74</v>
+        <v>387</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9918,7 +9865,7 @@
         <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>74</v>
@@ -9927,19 +9874,23 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>74</v>
       </c>
@@ -9975,29 +9926,31 @@
         <v>74</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AC68" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>176</v>
+        <v>395</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>74</v>
@@ -10006,18 +9959,18 @@
         <v>74</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>74</v>
+        <v>396</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>74</v>
@@ -10039,16 +9992,20 @@
         <v>74</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>371</v>
+        <v>263</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>367</v>
+        <v>264</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>74</v>
       </c>
@@ -10096,7 +10053,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -10108,7 +10065,7 @@
         <v>74</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>138</v>
+        <v>270</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>74</v>
@@ -10117,15 +10074,15 @@
         <v>74</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>74</v>
+        <v>271</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10148,13 +10105,13 @@
         <v>74</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>375</v>
+        <v>165</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>376</v>
+        <v>166</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10205,7 +10162,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>377</v>
+        <v>167</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -10214,7 +10171,7 @@
         <v>85</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>74</v>
@@ -10226,26 +10183,26 @@
         <v>74</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>74</v>
@@ -10254,19 +10211,19 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>380</v>
+        <v>134</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>381</v>
+        <v>172</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>382</v>
+        <v>136</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10304,31 +10261,31 @@
         <v>74</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>383</v>
+        <v>176</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>74</v>
@@ -10337,23 +10294,25 @@
         <v>74</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>384</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>85</v>
@@ -10365,21 +10324,19 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>105</v>
+        <v>354</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>389</v>
-      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>74</v>
       </c>
@@ -10427,19 +10384,19 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>390</v>
+        <v>176</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>391</v>
+        <v>74</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>74</v>
@@ -10448,15 +10405,15 @@
         <v>74</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>392</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10479,17 +10436,19 @@
         <v>86</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="O73" t="s" s="2">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>74</v>
@@ -10499,7 +10458,7 @@
         <v>74</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>74</v>
+        <v>416</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>74</v>
@@ -10538,7 +10497,7 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -10547,7 +10506,7 @@
         <v>85</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>391</v>
+        <v>74</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>97</v>
@@ -10559,15 +10518,15 @@
         <v>74</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>399</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10590,20 +10549,18 @@
         <v>86</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>402</v>
+        <v>210</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>74</v>
       </c>
@@ -10651,7 +10608,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -10672,25 +10629,23 @@
         <v>74</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>408</v>
+        <v>372</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>85</v>
@@ -10702,22 +10657,20 @@
         <v>74</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>263</v>
+        <v>105</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>267</v>
+        <v>377</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>74</v>
@@ -10766,19 +10719,19 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>269</v>
+        <v>378</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>74</v>
+        <v>379</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>270</v>
+        <v>97</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>74</v>
@@ -10787,15 +10740,15 @@
         <v>74</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>271</v>
+        <v>380</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10803,7 +10756,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>85</v>
@@ -10815,19 +10768,21 @@
         <v>74</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>87</v>
+        <v>210</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>165</v>
+        <v>383</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>166</v>
+        <v>384</v>
       </c>
       <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>74</v>
       </c>
@@ -10875,7 +10830,7 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>167</v>
+        <v>386</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10884,10 +10839,10 @@
         <v>85</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>168</v>
+        <v>379</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>74</v>
@@ -10896,26 +10851,26 @@
         <v>74</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>169</v>
+        <v>387</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>74</v>
@@ -10924,21 +10879,23 @@
         <v>74</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>134</v>
+        <v>391</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>172</v>
+        <v>392</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>74</v>
       </c>
@@ -10974,31 +10931,31 @@
         <v>74</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>176</v>
+        <v>395</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>74</v>
@@ -11007,23 +10964,25 @@
         <v>74</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>169</v>
+        <v>396</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="D78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>85</v>
@@ -11035,22 +10994,22 @@
         <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>429</v>
+        <v>264</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>355</v>
+        <v>265</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>356</v>
+        <v>266</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>357</v>
+        <v>267</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>74</v>
@@ -11060,7 +11019,7 @@
         <v>74</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>430</v>
+        <v>74</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>74</v>
@@ -11099,19 +11058,19 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>359</v>
+        <v>269</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>74</v>
@@ -11120,15 +11079,15 @@
         <v>74</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>360</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11151,13 +11110,13 @@
         <v>74</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>363</v>
+        <v>165</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>364</v>
+        <v>166</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11217,7 +11176,7 @@
         <v>85</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>74</v>
@@ -11229,19 +11188,19 @@
         <v>74</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11263,12 +11222,14 @@
         <v>133</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>367</v>
+        <v>134</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>74</v>
@@ -11307,7 +11268,9 @@
       <c r="AB80" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AC80" s="2"/>
+      <c r="AC80" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="AD80" t="s" s="2">
         <v>74</v>
       </c>
@@ -11336,18 +11299,18 @@
         <v>74</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>74</v>
@@ -11369,13 +11332,13 @@
         <v>74</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11452,10 +11415,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11463,7 +11426,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>85</v>
@@ -11475,19 +11438,23 @@
         <v>74</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>99</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>74</v>
       </c>
@@ -11496,7 +11463,7 @@
         <v>74</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>74</v>
+        <v>428</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>74</v>
@@ -11535,7 +11502,7 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -11547,7 +11514,7 @@
         <v>74</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>74</v>
@@ -11556,15 +11523,15 @@
         <v>74</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>74</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11590,13 +11557,13 @@
         <v>210</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11646,7 +11613,7 @@
         <v>74</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
@@ -11667,15 +11634,15 @@
         <v>74</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11701,14 +11668,14 @@
         <v>105</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>74</v>
@@ -11757,7 +11724,7 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
@@ -11766,7 +11733,7 @@
         <v>85</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>97</v>
@@ -11778,15 +11745,15 @@
         <v>74</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11812,14 +11779,14 @@
         <v>210</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>74</v>
@@ -11868,7 +11835,7 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
@@ -11877,7 +11844,7 @@
         <v>85</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>97</v>
@@ -11889,15 +11856,15 @@
         <v>74</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11920,19 +11887,19 @@
         <v>86</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>74</v>
@@ -11981,7 +11948,7 @@
         <v>74</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
@@ -12002,19 +11969,17 @@
         <v>74</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
         <v>74</v>
       </c>
@@ -12032,22 +11997,22 @@
         <v>74</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>263</v>
+        <v>210</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>74</v>
@@ -12096,19 +12061,19 @@
         <v>74</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>270</v>
+        <v>97</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>74</v>
@@ -12117,15 +12082,15 @@
         <v>74</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>349</v>
+        <v>434</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12136,7 +12101,7 @@
         <v>75</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>74</v>
@@ -12145,16 +12110,16 @@
         <v>74</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>87</v>
+        <v>435</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>165</v>
+        <v>436</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>166</v>
+        <v>437</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12205,40 +12170,40 @@
         <v>74</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>167</v>
+        <v>434</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>74</v>
+        <v>438</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>169</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>351</v>
+        <v>440</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12254,20 +12219,18 @@
         <v>74</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>134</v>
+        <v>441</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>74</v>
@@ -12292,31 +12255,31 @@
         <v>74</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>74</v>
+        <v>443</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>74</v>
+        <v>444</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>176</v>
+        <v>440</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>75</v>
@@ -12328,24 +12291,24 @@
         <v>74</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>74</v>
+        <v>445</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>169</v>
+        <v>446</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>353</v>
+        <v>447</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12353,10 +12316,10 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>74</v>
@@ -12368,20 +12331,16 @@
         <v>86</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>99</v>
+        <v>448</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>74</v>
       </c>
@@ -12390,7 +12349,7 @@
         <v>74</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>445</v>
+        <v>74</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>74</v>
@@ -12429,13 +12388,13 @@
         <v>74</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>359</v>
+        <v>447</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>74</v>
@@ -12447,18 +12406,18 @@
         <v>74</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>74</v>
+        <v>451</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>360</v>
+        <v>452</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>362</v>
+        <v>453</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12469,7 +12428,7 @@
         <v>75</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>74</v>
@@ -12478,16 +12437,16 @@
         <v>74</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>363</v>
+        <v>454</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>364</v>
+        <v>455</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12514,13 +12473,13 @@
         <v>74</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>74</v>
+        <v>456</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>74</v>
+        <v>457</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>74</v>
@@ -12538,36 +12497,36 @@
         <v>74</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>167</v>
+        <v>453</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>74</v>
+        <v>458</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>74</v>
+        <v>459</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>366</v>
+        <v>460</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12587,16 +12546,16 @@
         <v>74</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>133</v>
+        <v>461</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>367</v>
+        <v>462</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>368</v>
+        <v>463</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12623,29 +12582,31 @@
         <v>74</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>74</v>
+        <v>456</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>74</v>
+        <v>457</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AC92" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>176</v>
+        <v>460</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>75</v>
@@ -12657,28 +12618,26 @@
         <v>74</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>74</v>
+        <v>464</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
         <v>74</v>
       </c>
@@ -12687,7 +12646,7 @@
         <v>75</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>74</v>
@@ -12696,16 +12655,16 @@
         <v>74</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>371</v>
+        <v>466</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>367</v>
+        <v>467</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>372</v>
+        <v>468</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12756,7 +12715,7 @@
         <v>74</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>176</v>
+        <v>465</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>75</v>
@@ -12768,24 +12727,24 @@
         <v>74</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>74</v>
+        <v>469</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>74</v>
+        <v>470</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>374</v>
+        <v>471</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12796,7 +12755,7 @@
         <v>75</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>74</v>
@@ -12805,16 +12764,16 @@
         <v>74</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>99</v>
+        <v>466</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>375</v>
+        <v>472</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>376</v>
+        <v>473</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12865,36 +12824,36 @@
         <v>74</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>377</v>
+        <v>471</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>74</v>
+        <v>474</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>74</v>
+        <v>470</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>379</v>
+        <v>475</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12905,7 +12864,7 @@
         <v>75</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>74</v>
@@ -12917,17 +12876,15 @@
         <v>86</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>210</v>
+        <v>476</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>380</v>
+        <v>477</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>74</v>
@@ -12976,13 +12933,13 @@
         <v>74</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>383</v>
+        <v>475</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>74</v>
@@ -12994,18 +12951,18 @@
         <v>74</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>384</v>
+        <v>479</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>386</v>
+        <v>480</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13013,7 +12970,7 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>85</v>
@@ -13025,21 +12982,19 @@
         <v>74</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>387</v>
+        <v>165</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>388</v>
+        <v>166</v>
       </c>
       <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>389</v>
-      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>74</v>
       </c>
@@ -13087,7 +13042,7 @@
         <v>74</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>390</v>
+        <v>167</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>75</v>
@@ -13096,10 +13051,10 @@
         <v>85</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>391</v>
+        <v>168</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>74</v>
@@ -13108,26 +13063,26 @@
         <v>74</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>392</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>394</v>
+        <v>481</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>74</v>
@@ -13136,21 +13091,21 @@
         <v>74</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>395</v>
+        <v>134</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>74</v>
       </c>
@@ -13198,19 +13153,19 @@
         <v>74</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>398</v>
+        <v>176</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>391</v>
+        <v>74</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>74</v>
@@ -13219,50 +13174,50 @@
         <v>74</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>399</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>401</v>
+        <v>482</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>74</v>
+        <v>483</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J98" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>402</v>
+        <v>133</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>403</v>
+        <v>484</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>404</v>
+        <v>485</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>405</v>
+        <v>136</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>406</v>
+        <v>142</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>74</v>
@@ -13311,19 +13266,19 @@
         <v>74</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>407</v>
+        <v>486</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>74</v>
@@ -13332,15 +13287,15 @@
         <v>74</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>408</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13363,20 +13318,16 @@
         <v>86</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>273</v>
+        <v>488</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>74</v>
       </c>
@@ -13400,13 +13351,13 @@
         <v>74</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>74</v>
+        <v>490</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>74</v>
+        <v>491</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>74</v>
@@ -13424,7 +13375,7 @@
         <v>74</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>277</v>
+        <v>487</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>75</v>
@@ -13442,18 +13393,18 @@
         <v>74</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>278</v>
+        <v>492</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>455</v>
+        <v>493</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>455</v>
+        <v>493</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13461,10 +13412,10 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>74</v>
@@ -13476,13 +13427,13 @@
         <v>86</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>456</v>
+        <v>494</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13533,13 +13484,13 @@
         <v>74</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>455</v>
+        <v>493</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>74</v>
@@ -13551,18 +13502,18 @@
         <v>74</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>459</v>
+        <v>169</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>460</v>
+        <v>479</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13585,13 +13536,13 @@
         <v>86</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>189</v>
+        <v>496</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>463</v>
+        <v>498</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13618,13 +13569,13 @@
         <v>74</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>464</v>
+        <v>74</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>465</v>
+        <v>74</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>74</v>
@@ -13642,7 +13593,7 @@
         <v>74</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>75</v>
@@ -13660,18 +13611,18 @@
         <v>74</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>466</v>
+        <v>499</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>467</v>
+        <v>500</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>468</v>
+        <v>501</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>468</v>
+        <v>501</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13694,13 +13645,13 @@
         <v>86</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>469</v>
+        <v>502</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>471</v>
+        <v>504</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13727,13 +13678,13 @@
         <v>74</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>74</v>
+        <v>505</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>74</v>
+        <v>506</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>74</v>
@@ -13751,7 +13702,7 @@
         <v>74</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>468</v>
+        <v>501</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>75</v>
@@ -13769,18 +13720,18 @@
         <v>74</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>472</v>
+        <v>169</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>473</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13788,7 +13739,7 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>76</v>
@@ -13803,13 +13754,13 @@
         <v>86</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>189</v>
+        <v>476</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>475</v>
+        <v>508</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>476</v>
+        <v>509</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13836,13 +13787,13 @@
         <v>74</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>477</v>
+        <v>74</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>478</v>
+        <v>74</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>74</v>
@@ -13860,10 +13811,10 @@
         <v>74</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>76</v>
@@ -13878,18 +13829,18 @@
         <v>74</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>479</v>
+        <v>510</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>480</v>
+        <v>511</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13900,7 +13851,7 @@
         <v>75</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>74</v>
@@ -13909,16 +13860,16 @@
         <v>74</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>482</v>
+        <v>210</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>483</v>
+        <v>165</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>484</v>
+        <v>166</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13945,13 +13896,13 @@
         <v>74</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>477</v>
+        <v>74</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>478</v>
+        <v>74</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>74</v>
@@ -13969,40 +13920,40 @@
         <v>74</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>481</v>
+        <v>167</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM104" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>485</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14018,18 +13969,20 @@
         <v>74</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>487</v>
+        <v>133</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>488</v>
+        <v>134</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>74</v>
@@ -14078,7 +14031,7 @@
         <v>74</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>486</v>
+        <v>176</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>75</v>
@@ -14090,28 +14043,28 @@
         <v>74</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>490</v>
+        <v>74</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>491</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>74</v>
+        <v>483</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14124,22 +14077,26 @@
         <v>74</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J106" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>487</v>
+        <v>133</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>74</v>
       </c>
@@ -14187,7 +14144,7 @@
         <v>74</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>75</v>
@@ -14199,24 +14156,24 @@
         <v>74</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>495</v>
+        <v>74</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>491</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14224,10 +14181,10 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>74</v>
@@ -14239,13 +14196,13 @@
         <v>86</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>497</v>
+        <v>210</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -14296,13 +14253,13 @@
         <v>74</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>74</v>
@@ -14314,18 +14271,18 @@
         <v>74</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>169</v>
+        <v>518</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14345,16 +14302,16 @@
         <v>74</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>165</v>
+        <v>520</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>166</v>
+        <v>521</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14381,13 +14338,13 @@
         <v>74</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>74</v>
+        <v>522</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>74</v>
+        <v>523</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>74</v>
@@ -14405,7 +14362,7 @@
         <v>74</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>167</v>
+        <v>519</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>75</v>
@@ -14414,35 +14371,35 @@
         <v>85</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>169</v>
+        <v>524</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>75</v>
+        <v>526</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>76</v>
@@ -14454,20 +14411,18 @@
         <v>74</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>133</v>
+        <v>476</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>134</v>
+        <v>527</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>74</v>
@@ -14504,19 +14459,19 @@
         <v>74</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>74</v>
+        <v>529</v>
       </c>
       <c r="AC109" t="s" s="2">
-        <v>74</v>
+        <v>530</v>
       </c>
       <c r="AD109" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>176</v>
+        <v>525</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>75</v>
@@ -14528,60 +14483,56 @@
         <v>74</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>74</v>
+        <v>531</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>169</v>
+        <v>532</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>504</v>
+        <v>74</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>505</v>
+        <v>165</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>74</v>
       </c>
@@ -14629,19 +14580,19 @@
         <v>74</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>507</v>
+        <v>167</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>74</v>
@@ -14650,26 +14601,26 @@
         <v>74</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>130</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>508</v>
+        <v>534</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>508</v>
+        <v>534</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>74</v>
@@ -14678,18 +14629,20 @@
         <v>74</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>509</v>
+        <v>134</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N111" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>74</v>
@@ -14714,13 +14667,13 @@
         <v>74</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>511</v>
+        <v>74</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>512</v>
+        <v>74</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>74</v>
@@ -14738,68 +14691,72 @@
         <v>74</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>508</v>
+        <v>176</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM111" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>513</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>74</v>
+        <v>483</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>515</v>
+        <v>133</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>74</v>
       </c>
@@ -14847,36 +14804,36 @@
         <v>74</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>500</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14884,10 +14841,10 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>74</v>
@@ -14899,13 +14856,13 @@
         <v>86</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>517</v>
+        <v>210</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -14956,13 +14913,13 @@
         <v>74</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>74</v>
@@ -14974,18 +14931,18 @@
         <v>74</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>521</v>
+        <v>532</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14993,10 +14950,10 @@
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>74</v>
@@ -15008,13 +14965,13 @@
         <v>86</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>523</v>
+        <v>189</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -15044,10 +15001,10 @@
         <v>247</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>74</v>
@@ -15065,13 +15022,13 @@
         <v>74</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>74</v>
@@ -15083,18 +15040,18 @@
         <v>74</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>169</v>
+        <v>545</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>154</v>
+        <v>524</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15102,10 +15059,10 @@
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>74</v>
@@ -15114,16 +15071,16 @@
         <v>74</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>497</v>
+        <v>87</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>529</v>
+        <v>165</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>530</v>
+        <v>166</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -15174,47 +15131,47 @@
         <v>74</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>528</v>
+        <v>167</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>531</v>
+        <v>74</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>532</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>74</v>
@@ -15226,15 +15183,17 @@
         <v>74</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N116" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
         <v>74</v>
@@ -15271,31 +15230,31 @@
         <v>74</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="AC116" t="s" s="2">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="AD116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>74</v>
@@ -15309,14 +15268,14 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -15335,18 +15294,20 @@
         <v>74</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>133</v>
+        <v>263</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>134</v>
+        <v>264</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O117" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="P117" t="s" s="2">
         <v>74</v>
       </c>
@@ -15370,13 +15331,11 @@
         <v>74</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="Y117" s="2"/>
       <c r="Z117" t="s" s="2">
-        <v>74</v>
+        <v>549</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>74</v>
@@ -15394,7 +15353,7 @@
         <v>74</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>75</v>
@@ -15406,7 +15365,7 @@
         <v>74</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>138</v>
+        <v>270</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>74</v>
@@ -15415,50 +15374,50 @@
         <v>74</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>169</v>
+        <v>271</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>504</v>
+        <v>74</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J118" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>505</v>
+        <v>273</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>506</v>
+        <v>274</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>136</v>
+        <v>275</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>142</v>
+        <v>276</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>74</v>
@@ -15507,19 +15466,19 @@
         <v>74</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>507</v>
+        <v>277</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>74</v>
@@ -15528,17 +15487,19 @@
         <v>74</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>130</v>
+        <v>278</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="C119" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="D119" t="s" s="2">
         <v>74</v>
       </c>
@@ -15559,13 +15520,13 @@
         <v>86</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>210</v>
+        <v>476</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15616,13 +15577,13 @@
         <v>74</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>74</v>
@@ -15634,7 +15595,7 @@
         <v>74</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>532</v>
@@ -15642,10 +15603,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15665,16 +15626,16 @@
         <v>74</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>541</v>
+        <v>165</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>542</v>
+        <v>166</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -15701,13 +15662,13 @@
         <v>74</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>543</v>
+        <v>74</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>544</v>
+        <v>74</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>74</v>
@@ -15725,7 +15686,7 @@
         <v>74</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>540</v>
+        <v>167</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>75</v>
@@ -15734,35 +15695,35 @@
         <v>85</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL120" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM120" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>545</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>547</v>
+        <v>75</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>76</v>
@@ -15774,18 +15735,20 @@
         <v>74</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>497</v>
+        <v>133</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>548</v>
+        <v>134</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N121" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
         <v>74</v>
@@ -15822,19 +15785,19 @@
         <v>74</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>550</v>
+        <v>74</v>
       </c>
       <c r="AC121" t="s" s="2">
-        <v>551</v>
+        <v>74</v>
       </c>
       <c r="AD121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>546</v>
+        <v>176</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>75</v>
@@ -15846,56 +15809,60 @@
         <v>74</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>552</v>
+        <v>74</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>553</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>74</v>
+        <v>483</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>165</v>
+        <v>484</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P122" t="s" s="2">
         <v>74</v>
       </c>
@@ -15943,19 +15910,19 @@
         <v>74</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>167</v>
+        <v>486</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>74</v>
@@ -15964,26 +15931,26 @@
         <v>74</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>169</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>74</v>
@@ -15992,20 +15959,18 @@
         <v>74</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>134</v>
+        <v>537</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="N123" s="2"/>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>74</v>
@@ -16054,72 +16019,68 @@
         <v>74</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>176</v>
+        <v>536</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>74</v>
+        <v>539</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>169</v>
+        <v>532</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>504</v>
+        <v>74</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J124" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>505</v>
+        <v>558</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>74</v>
       </c>
@@ -16128,7 +16089,7 @@
         <v>74</v>
       </c>
       <c r="S124" t="s" s="2">
-        <v>74</v>
+        <v>559</v>
       </c>
       <c r="T124" t="s" s="2">
         <v>74</v>
@@ -16143,13 +16104,13 @@
         <v>74</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>74</v>
+        <v>543</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>74</v>
+        <v>544</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>74</v>
@@ -16167,38 +16128,40 @@
         <v>74</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>507</v>
+        <v>540</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>74</v>
+        <v>545</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>130</v>
+        <v>524</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="C125" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="C125" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="D125" t="s" s="2">
         <v>74</v>
       </c>
@@ -16219,13 +16182,13 @@
         <v>86</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>210</v>
+        <v>476</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>559</v>
+        <v>528</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -16276,13 +16239,13 @@
         <v>74</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>557</v>
+        <v>525</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>74</v>
@@ -16294,18 +16257,18 @@
         <v>74</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>553</v>
+        <v>532</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>561</v>
+        <v>533</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16313,7 +16276,7 @@
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>85</v>
@@ -16325,16 +16288,16 @@
         <v>74</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>562</v>
+        <v>165</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>563</v>
+        <v>166</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -16361,13 +16324,13 @@
         <v>74</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>564</v>
+        <v>74</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>565</v>
+        <v>74</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>74</v>
@@ -16385,47 +16348,47 @@
         <v>74</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>561</v>
+        <v>167</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>566</v>
+        <v>74</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>545</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>567</v>
+        <v>534</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>74</v>
@@ -16437,15 +16400,17 @@
         <v>74</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N127" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>74</v>
@@ -16494,19 +16459,19 @@
         <v>74</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>74</v>
@@ -16520,14 +16485,14 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>568</v>
+        <v>535</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>132</v>
+        <v>483</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
@@ -16540,24 +16505,26 @@
         <v>74</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K128" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>134</v>
+        <v>484</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>172</v>
+        <v>485</v>
       </c>
       <c r="N128" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="O128" s="2"/>
+      <c r="O128" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P128" t="s" s="2">
         <v>74</v>
       </c>
@@ -16593,19 +16560,19 @@
         <v>74</v>
       </c>
       <c r="AB128" t="s" s="2">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="AC128" t="s" s="2">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="AD128" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>176</v>
+        <v>486</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>75</v>
@@ -16626,15 +16593,15 @@
         <v>74</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>169</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>569</v>
+        <v>536</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -16642,10 +16609,10 @@
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>74</v>
@@ -16654,23 +16621,19 @@
         <v>74</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>263</v>
+        <v>210</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>264</v>
+        <v>537</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
         <v>74</v>
       </c>
@@ -16694,11 +16657,13 @@
         <v>74</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Y129" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z129" t="s" s="2">
-        <v>570</v>
+        <v>74</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>74</v>
@@ -16716,36 +16681,36 @@
         <v>74</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>269</v>
+        <v>536</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>270</v>
+        <v>97</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>74</v>
+        <v>539</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>271</v>
+        <v>532</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>571</v>
+        <v>540</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -16753,7 +16718,7 @@
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>85</v>
@@ -16768,20 +16733,16 @@
         <v>86</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>273</v>
+        <v>567</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
         <v>74</v>
       </c>
@@ -16790,7 +16751,7 @@
         <v>74</v>
       </c>
       <c r="S130" t="s" s="2">
-        <v>74</v>
+        <v>568</v>
       </c>
       <c r="T130" t="s" s="2">
         <v>74</v>
@@ -16805,13 +16766,13 @@
         <v>74</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>74</v>
+        <v>543</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>74</v>
+        <v>544</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>74</v>
@@ -16829,10 +16790,10 @@
         <v>74</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>277</v>
+        <v>540</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>85</v>
@@ -16847,31 +16808,29 @@
         <v>74</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>74</v>
+        <v>545</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>278</v>
+        <v>524</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="C131" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>74</v>
@@ -16883,13 +16842,13 @@
         <v>86</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>549</v>
+        <v>571</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -16940,7 +16899,7 @@
         <v>74</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>75</v>
@@ -16958,10 +16917,10 @@
         <v>74</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>553</v>
+        <v>573</v>
       </c>
     </row>
     <row r="132">
@@ -16969,7 +16928,7 @@
         <v>574</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17078,7 +17037,7 @@
         <v>575</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17189,11 +17148,11 @@
         <v>576</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
@@ -17215,10 +17174,10 @@
         <v>133</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="N134" t="s" s="2">
         <v>136</v>
@@ -17273,7 +17232,7 @@
         <v>74</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>75</v>
@@ -17302,7 +17261,7 @@
         <v>577</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17325,13 +17284,13 @@
         <v>86</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>559</v>
+        <v>579</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -17358,13 +17317,13 @@
         <v>74</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>74</v>
+        <v>580</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>74</v>
+        <v>581</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>74</v>
@@ -17382,7 +17341,7 @@
         <v>74</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>85</v>
@@ -17400,18 +17359,18 @@
         <v>74</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>553</v>
+        <v>583</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>561</v>
+        <v>584</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -17419,7 +17378,7 @@
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>85</v>
@@ -17437,10 +17396,10 @@
         <v>189</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -17452,7 +17411,7 @@
         <v>74</v>
       </c>
       <c r="S136" t="s" s="2">
-        <v>580</v>
+        <v>74</v>
       </c>
       <c r="T136" t="s" s="2">
         <v>74</v>
@@ -17470,10 +17429,10 @@
         <v>247</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="Z136" t="s" s="2">
-        <v>565</v>
+        <v>587</v>
       </c>
       <c r="AA136" t="s" s="2">
         <v>74</v>
@@ -17491,10 +17450,10 @@
         <v>74</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>561</v>
+        <v>584</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>85</v>
@@ -17509,22 +17468,20 @@
         <v>74</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>566</v>
+        <v>588</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>545</v>
+        <v>583</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="C137" t="s" s="2">
-        <v>582</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
         <v>74</v>
       </c>
@@ -17545,13 +17502,13 @@
         <v>86</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>497</v>
+        <v>189</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>548</v>
+        <v>590</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>549</v>
+        <v>591</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -17578,13 +17535,13 @@
         <v>74</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>74</v>
@@ -17602,13 +17559,13 @@
         <v>74</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>546</v>
+        <v>589</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>74</v>
@@ -17620,18 +17577,18 @@
         <v>74</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>552</v>
+        <v>592</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>553</v>
+        <v>593</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>554</v>
+        <v>594</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -17642,7 +17599,7 @@
         <v>75</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>74</v>
@@ -17651,16 +17608,16 @@
         <v>74</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>210</v>
+        <v>476</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>165</v>
+        <v>595</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>166</v>
+        <v>596</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -17711,47 +17668,47 @@
         <v>74</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>167</v>
+        <v>594</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>74</v>
+        <v>597</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>169</v>
+        <v>598</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>555</v>
+        <v>599</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>74</v>
@@ -17763,17 +17720,15 @@
         <v>74</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N139" s="2"/>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
         <v>74</v>
@@ -17822,19 +17777,19 @@
         <v>74</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>74</v>
@@ -17848,14 +17803,14 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>504</v>
+        <v>132</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
@@ -17868,26 +17823,24 @@
         <v>74</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>505</v>
+        <v>134</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>506</v>
+        <v>172</v>
       </c>
       <c r="N140" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="O140" t="s" s="2">
-        <v>142</v>
-      </c>
+      <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
         <v>74</v>
       </c>
@@ -17935,7 +17888,7 @@
         <v>74</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>507</v>
+        <v>176</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>75</v>
@@ -17956,47 +17909,51 @@
         <v>74</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>130</v>
+        <v>169</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>557</v>
+        <v>601</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>74</v>
+        <v>483</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J141" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>558</v>
+        <v>484</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P141" t="s" s="2">
         <v>74</v>
       </c>
@@ -18044,36 +18001,36 @@
         <v>74</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>557</v>
+        <v>486</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>560</v>
+        <v>74</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>553</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>561</v>
+        <v>602</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -18096,13 +18053,13 @@
         <v>86</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>189</v>
+        <v>603</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>563</v>
+        <v>604</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -18114,7 +18071,7 @@
         <v>74</v>
       </c>
       <c r="S142" t="s" s="2">
-        <v>589</v>
+        <v>74</v>
       </c>
       <c r="T142" t="s" s="2">
         <v>74</v>
@@ -18129,13 +18086,13 @@
         <v>74</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>564</v>
+        <v>74</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>565</v>
+        <v>74</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>74</v>
@@ -18153,7 +18110,7 @@
         <v>74</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>561</v>
+        <v>602</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>85</v>
@@ -18171,18 +18128,18 @@
         <v>74</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>566</v>
+        <v>597</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>545</v>
+        <v>605</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18193,7 +18150,7 @@
         <v>75</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>74</v>
@@ -18205,13 +18162,13 @@
         <v>86</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>497</v>
+        <v>189</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -18238,13 +18195,13 @@
         <v>74</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>74</v>
+        <v>490</v>
       </c>
       <c r="Z143" t="s" s="2">
-        <v>74</v>
+        <v>609</v>
       </c>
       <c r="AA143" t="s" s="2">
         <v>74</v>
@@ -18262,13 +18219,13 @@
         <v>74</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>74</v>
@@ -18280,18 +18237,18 @@
         <v>74</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>594</v>
+        <v>610</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -18302,7 +18259,7 @@
         <v>75</v>
       </c>
       <c r="G144" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>74</v>
@@ -18311,16 +18268,16 @@
         <v>74</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>210</v>
+        <v>476</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>165</v>
+        <v>612</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>166</v>
+        <v>613</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -18371,47 +18328,47 @@
         <v>74</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>167</v>
+        <v>611</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>74</v>
+        <v>614</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>169</v>
+        <v>615</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>74</v>
@@ -18423,17 +18380,15 @@
         <v>74</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N145" s="2"/>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
         <v>74</v>
@@ -18482,19 +18437,19 @@
         <v>74</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>74</v>
@@ -18508,14 +18463,14 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
-        <v>504</v>
+        <v>132</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
@@ -18528,26 +18483,24 @@
         <v>74</v>
       </c>
       <c r="I146" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K146" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>505</v>
+        <v>134</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>506</v>
+        <v>172</v>
       </c>
       <c r="N146" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="O146" t="s" s="2">
-        <v>142</v>
-      </c>
+      <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
         <v>74</v>
       </c>
@@ -18595,7 +18548,7 @@
         <v>74</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>507</v>
+        <v>176</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>75</v>
@@ -18616,47 +18569,51 @@
         <v>74</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>130</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
-        <v>74</v>
+        <v>483</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G147" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H147" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I147" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J147" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>599</v>
+        <v>484</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="N147" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O147" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P147" t="s" s="2">
         <v>74</v>
       </c>
@@ -18680,13 +18637,13 @@
         <v>74</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>601</v>
+        <v>74</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>602</v>
+        <v>74</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>74</v>
@@ -18704,36 +18661,36 @@
         <v>74</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>598</v>
+        <v>486</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI147" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>603</v>
+        <v>74</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>604</v>
+        <v>130</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -18756,13 +18713,13 @@
         <v>86</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>189</v>
+        <v>620</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -18789,13 +18746,13 @@
         <v>74</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>601</v>
+        <v>74</v>
       </c>
       <c r="Z148" t="s" s="2">
-        <v>608</v>
+        <v>74</v>
       </c>
       <c r="AA148" t="s" s="2">
         <v>74</v>
@@ -18813,7 +18770,7 @@
         <v>74</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>75</v>
@@ -18831,18 +18788,18 @@
         <v>74</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>604</v>
+        <v>624</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -18850,7 +18807,7 @@
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>85</v>
@@ -18865,13 +18822,13 @@
         <v>86</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -18898,13 +18855,13 @@
         <v>74</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="Z149" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AA149" t="s" s="2">
         <v>74</v>
@@ -18922,10 +18879,10 @@
         <v>74</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>85</v>
@@ -18940,18 +18897,18 @@
         <v>74</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>614</v>
+        <v>629</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -18974,13 +18931,13 @@
         <v>86</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>497</v>
+        <v>227</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -19031,7 +18988,7 @@
         <v>74</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>75</v>
@@ -19049,18 +19006,18 @@
         <v>74</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>619</v>
+        <v>634</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -19080,16 +19037,16 @@
         <v>74</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>165</v>
+        <v>636</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>166</v>
+        <v>637</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -19116,13 +19073,13 @@
         <v>74</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>74</v>
+        <v>638</v>
       </c>
       <c r="Z151" t="s" s="2">
-        <v>74</v>
+        <v>639</v>
       </c>
       <c r="AA151" t="s" s="2">
         <v>74</v>
@@ -19140,7 +19097,7 @@
         <v>74</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>167</v>
+        <v>635</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>75</v>
@@ -19149,31 +19106,31 @@
         <v>85</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>74</v>
+        <v>640</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>169</v>
+        <v>641</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
@@ -19189,20 +19146,18 @@
         <v>74</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>133</v>
+        <v>476</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>134</v>
+        <v>643</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>644</v>
+      </c>
+      <c r="N152" s="2"/>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
         <v>74</v>
@@ -19251,7 +19206,7 @@
         <v>74</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>176</v>
+        <v>642</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>75</v>
@@ -19263,60 +19218,56 @@
         <v>74</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>74</v>
+        <v>645</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>169</v>
+        <v>646</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>504</v>
+        <v>74</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H153" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I153" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>505</v>
+        <v>165</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O153" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N153" s="2"/>
+      <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
         <v>74</v>
       </c>
@@ -19364,19 +19315,19 @@
         <v>74</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>507</v>
+        <v>167</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>74</v>
@@ -19385,26 +19336,26 @@
         <v>74</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>130</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G154" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H154" t="s" s="2">
         <v>74</v>
@@ -19413,18 +19364,20 @@
         <v>74</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>624</v>
+        <v>133</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>616</v>
+        <v>134</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N154" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N154" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O154" s="2"/>
       <c r="P154" t="s" s="2">
         <v>74</v>
@@ -19473,68 +19426,72 @@
         <v>74</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>623</v>
+        <v>176</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI154" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>618</v>
+        <v>74</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>626</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>627</v>
+        <v>649</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>627</v>
+        <v>649</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
-        <v>74</v>
+        <v>483</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G155" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H155" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J155" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>628</v>
+        <v>484</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N155" s="2"/>
-      <c r="O155" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="N155" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O155" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P155" t="s" s="2">
         <v>74</v>
       </c>
@@ -19558,13 +19515,13 @@
         <v>74</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>511</v>
+        <v>74</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>630</v>
+        <v>74</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>74</v>
@@ -19582,36 +19539,36 @@
         <v>74</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>627</v>
+        <v>486</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH155" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI155" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK155" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>618</v>
+        <v>74</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>631</v>
+        <v>130</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -19619,10 +19576,10 @@
       </c>
       <c r="E156" s="2"/>
       <c r="F156" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G156" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H156" t="s" s="2">
         <v>74</v>
@@ -19634,13 +19591,13 @@
         <v>86</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>497</v>
+        <v>189</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -19667,13 +19624,13 @@
         <v>74</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>74</v>
+        <v>653</v>
       </c>
       <c r="Z156" t="s" s="2">
-        <v>74</v>
+        <v>654</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>74</v>
@@ -19691,13 +19648,13 @@
         <v>74</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH156" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>74</v>
@@ -19709,18 +19666,18 @@
         <v>74</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>636</v>
+        <v>656</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>637</v>
+        <v>657</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>637</v>
+        <v>657</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -19740,18 +19697,20 @@
         <v>74</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>210</v>
+        <v>658</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>165</v>
+        <v>659</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N157" s="2"/>
+        <v>660</v>
+      </c>
+      <c r="N157" t="s" s="2">
+        <v>661</v>
+      </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
         <v>74</v>
@@ -19800,7 +19759,7 @@
         <v>74</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>167</v>
+        <v>657</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>75</v>
@@ -19809,1341 +19768,19 @@
         <v>85</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK157" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>74</v>
+        <v>662</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="B158" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="C158" s="2"/>
-      <c r="D158" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="E158" s="2"/>
-      <c r="F158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G158" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K158" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O158" s="2"/>
-      <c r="P158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q158" s="2"/>
-      <c r="R158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF158" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AG158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH158" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ158" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM158" t="s" s="2">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="B159" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="C159" s="2"/>
-      <c r="D159" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="E159" s="2"/>
-      <c r="F159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G159" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H159" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I159" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J159" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K159" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O159" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="P159" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q159" s="2"/>
-      <c r="R159" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S159" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T159" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U159" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V159" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W159" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X159" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y159" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z159" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF159" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AG159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK159" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="B160" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="C160" s="2"/>
-      <c r="D160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E160" s="2"/>
-      <c r="F160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G160" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J160" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="N160" s="2"/>
-      <c r="O160" s="2"/>
-      <c r="P160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q160" s="2"/>
-      <c r="R160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ160" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL160" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AM160" t="s" s="2">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="B161" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="C161" s="2"/>
-      <c r="D161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E161" s="2"/>
-      <c r="F161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G161" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J161" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K161" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="N161" s="2"/>
-      <c r="O161" s="2"/>
-      <c r="P161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q161" s="2"/>
-      <c r="R161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF161" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="AG161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH161" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ161" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL161" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="AM161" t="s" s="2">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="B162" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="C162" s="2"/>
-      <c r="D162" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E162" s="2"/>
-      <c r="F162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G162" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H162" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I162" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J162" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K162" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="L162" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="N162" s="2"/>
-      <c r="O162" s="2"/>
-      <c r="P162" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q162" s="2"/>
-      <c r="R162" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S162" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T162" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U162" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V162" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W162" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X162" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y162" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z162" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA162" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB162" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC162" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD162" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE162" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF162" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AG162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH162" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI162" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ162" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK162" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL162" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="AM162" t="s" s="2">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="B163" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="C163" s="2"/>
-      <c r="D163" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E163" s="2"/>
-      <c r="F163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G163" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H163" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I163" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J163" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K163" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L163" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N163" s="2"/>
-      <c r="O163" s="2"/>
-      <c r="P163" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q163" s="2"/>
-      <c r="R163" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S163" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T163" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U163" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V163" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W163" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X163" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="Y163" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="Z163" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="AA163" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB163" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC163" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD163" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE163" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF163" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="AG163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH163" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI163" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ163" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK163" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL163" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="AM163" t="s" s="2">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="B164" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="C164" s="2"/>
-      <c r="D164" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E164" s="2"/>
-      <c r="F164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G164" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H164" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I164" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J164" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K164" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="L164" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="N164" s="2"/>
-      <c r="O164" s="2"/>
-      <c r="P164" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q164" s="2"/>
-      <c r="R164" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S164" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T164" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U164" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V164" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W164" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X164" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y164" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z164" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA164" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB164" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC164" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD164" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE164" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF164" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="AG164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH164" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI164" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ164" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK164" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL164" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="AM164" t="s" s="2">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="B165" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="C165" s="2"/>
-      <c r="D165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E165" s="2"/>
-      <c r="F165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G165" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K165" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N165" s="2"/>
-      <c r="O165" s="2"/>
-      <c r="P165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q165" s="2"/>
-      <c r="R165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF165" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH165" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI165" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AJ165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM165" t="s" s="2">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="B166" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="C166" s="2"/>
-      <c r="D166" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="E166" s="2"/>
-      <c r="F166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K166" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M166" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N166" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O166" s="2"/>
-      <c r="P166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q166" s="2"/>
-      <c r="R166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF166" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AG166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ166" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM166" t="s" s="2">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="B167" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="C167" s="2"/>
-      <c r="D167" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="E167" s="2"/>
-      <c r="F167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H167" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I167" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J167" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K167" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O167" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="P167" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q167" s="2"/>
-      <c r="R167" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S167" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T167" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U167" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V167" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W167" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X167" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y167" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z167" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA167" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB167" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC167" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD167" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE167" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF167" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AG167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI167" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ167" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK167" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL167" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM167" t="s" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="B168" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="C168" s="2"/>
-      <c r="D168" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E168" s="2"/>
-      <c r="F168" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G168" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H168" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I168" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J168" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K168" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="N168" s="2"/>
-      <c r="O168" s="2"/>
-      <c r="P168" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q168" s="2"/>
-      <c r="R168" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S168" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T168" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U168" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V168" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W168" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X168" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="Y168" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="Z168" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="AA168" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB168" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC168" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD168" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE168" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF168" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="AG168" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH168" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI168" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ168" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK168" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL168" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="AM168" t="s" s="2">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="B169" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="C169" s="2"/>
-      <c r="D169" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E169" s="2"/>
-      <c r="F169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G169" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H169" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I169" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J169" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K169" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="O169" s="2"/>
-      <c r="P169" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q169" s="2"/>
-      <c r="R169" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S169" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T169" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U169" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V169" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W169" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X169" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y169" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z169" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA169" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB169" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC169" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD169" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE169" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF169" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="AG169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH169" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI169" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ169" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK169" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL169" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="AM169" t="s" s="2">
-        <v>684</v>
       </c>
     </row>
   </sheetData>

--- a/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-medicinalProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-medicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:55:33+00:00</t>
+    <t>2024-05-24T07:08:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
